--- a/Task-6/task-6 banking application.xlsx
+++ b/Task-6/task-6 banking application.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="93">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -52,12 +50,6 @@
   </si>
   <si>
     <t>Test Case severity</t>
-  </si>
-  <si>
-    <t>1. Log in to the net banking application
-2. Navigate to the "Account Management" section
-3. Update contact information (e.g., phone number)
-4. Change account password</t>
   </si>
   <si>
     <t>TC-1</t>
@@ -99,24 +91,214 @@
     <t>Payment options displayed to user</t>
   </si>
   <si>
+    <t>Payment method is added successfully</t>
+  </si>
+  <si>
+    <t>Payment is successfully processed</t>
+  </si>
+  <si>
+    <t>TS-2</t>
+  </si>
+  <si>
+    <t>Verify Transaction History Functionality</t>
+  </si>
+  <si>
+    <t>TC-2</t>
+  </si>
+  <si>
+    <t>Log in to the net banking application</t>
+  </si>
+  <si>
+    <t>User should be signed in successfullsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filter transactions by date range</t>
+  </si>
+  <si>
+    <t>Start Date: [01/01/203], End Date: [31/05/2023]</t>
+  </si>
+  <si>
+    <t>Transaction history should be displayed</t>
+  </si>
+  <si>
+    <t>Transaction history is displayed</t>
+  </si>
+  <si>
+    <t>Verify transaction details</t>
+  </si>
+  <si>
+    <t>Transaction details (date, amount, description) should be displayed</t>
+  </si>
+  <si>
+    <t>Transaction details (date, amount, description) are accurate</t>
+  </si>
+  <si>
+    <t>TS-3</t>
+  </si>
+  <si>
+    <t>TC-3</t>
+  </si>
+  <si>
     <t>Card Number: 4111 1111 1111 1111
-Expiry Date: 12/25, CVV: 441</t>
-  </si>
-  <si>
-    <t>Payment method should add successfully</t>
-  </si>
-  <si>
-    <t>Payment method is added successfully</t>
-  </si>
-  <si>
-    <t>Transfer to: Mani9981@upi.com
-Amount: 200</t>
-  </si>
-  <si>
-    <t>Payment is successfully processed</t>
-  </si>
-  <si>
-    <t>Payment should be processed successfully</t>
+Expiry Date: [12/25], CVV: [221]</t>
+  </si>
+  <si>
+    <t>Payment method should be added</t>
+  </si>
+  <si>
+    <t>Transfer to UPI: 8877112909@UPI.com
+Amount: $2,000</t>
+  </si>
+  <si>
+    <t>Payment shoul be successfully processed</t>
+  </si>
+  <si>
+    <t>Update contact information (e.g., phone number)</t>
+  </si>
+  <si>
+    <t>Change account password</t>
+  </si>
+  <si>
+    <t>Navigate to the "Account Management" section</t>
+  </si>
+  <si>
+    <t>Account management options are displayed</t>
+  </si>
+  <si>
+    <t>Account management options should display</t>
+  </si>
+  <si>
+    <t>Contact information is updated successfully</t>
+  </si>
+  <si>
+    <t>Contact information should be updated successfully</t>
+  </si>
+  <si>
+    <t>Password is successfully changed</t>
+  </si>
+  <si>
+    <t>Password should be updated</t>
+  </si>
+  <si>
+    <t>New Phone Number: [9090126761]</t>
+  </si>
+  <si>
+    <t>New Password: [002-Hellowa]</t>
+  </si>
+  <si>
+    <t>Verify Payment Options Functionality</t>
+  </si>
+  <si>
+    <t>TS-4</t>
+  </si>
+  <si>
+    <t>Verify Security Measures</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t>1. Log in to the net banking application</t>
+  </si>
+  <si>
+    <t>2. Attempt to log in with incorrect credentials</t>
+  </si>
+  <si>
+    <t>Username: Mani42999121
+Password: 001@Jacka</t>
+  </si>
+  <si>
+    <t>User should be denied access and displays an appropriate error message</t>
+  </si>
+  <si>
+    <t>User is denied access, receives an appropriate error message</t>
+  </si>
+  <si>
+    <t>3. Check for session timeout behavior</t>
+  </si>
+  <si>
+    <t>Stay idle on the page for 15mins</t>
+  </si>
+  <si>
+    <t>User should automatically logged out after a specified idle time</t>
+  </si>
+  <si>
+    <t>User is automatically logged out after a specified idle time</t>
+  </si>
+  <si>
+    <t>4. Verify secure connection (HTTPS)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The connection to the net banking site is secured via HTTPS</t>
+  </si>
+  <si>
+    <t>TS-5</t>
+  </si>
+  <si>
+    <t>Verify Bill Payment Functionality</t>
+  </si>
+  <si>
+    <t>TC-5</t>
+  </si>
+  <si>
+    <t>2. Navigate to the "Bill Payments" section</t>
+  </si>
+  <si>
+    <t>Bill payment options are displayed</t>
+  </si>
+  <si>
+    <t>3. Select a biller and enter payment details</t>
+  </si>
+  <si>
+    <t>Biller: [Airtel DTH], Amount: [1,201], Due Date: [10/02/2024]</t>
+  </si>
+  <si>
+    <t>Payment details are entered successfully</t>
+  </si>
+  <si>
+    <t>4. Confirm and complete the bill payment</t>
+  </si>
+  <si>
+    <t>Payment is successfully processed, and a confirmation is displayed</t>
+  </si>
+  <si>
+    <t>Payment processed and confirmation received</t>
+  </si>
+  <si>
+    <t>TS-6</t>
+  </si>
+  <si>
+    <t>Verify Mobile Banking Integration</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t>2. Access the mobile banking features from the application</t>
+  </si>
+  <si>
+    <t>Mobile banking features are accessible and function as expected</t>
+  </si>
+  <si>
+    <t>All mobile features functions as expected</t>
+  </si>
+  <si>
+    <t>3. Perform a transaction using the mobile banking app</t>
+  </si>
+  <si>
+    <t>Transaction is reflected accurately in the net banking transaction history</t>
+  </si>
+  <si>
+    <t>Working as expected</t>
+  </si>
+  <si>
+    <t>4. Verify synchronization between net banking and mobile app</t>
+  </si>
+  <si>
+    <t>Transactions made in one platform are reflected in the other</t>
   </si>
 </sst>
 </file>
@@ -146,12 +328,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -178,13 +366,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,27 +382,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,254 +704,889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36.90625" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="87.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="87">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="58">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.5">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="87">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="58">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="87">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.5">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="87">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="58">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="54">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40.5">
+      <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.5">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="87">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27">
+      <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="27">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43.5">
+      <c r="A25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="87">
+      <c r="A27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="58">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="43.5">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.5">
+      <c r="A28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="54">
+      <c r="A29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40.5">
+      <c r="A30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>